--- a/funds/stocks/海尔智家&财务报表同型分析.xlsx
+++ b/funds/stocks/海尔智家&财务报表同型分析.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495" activeTab="2"/>
+    <workbookView windowWidth="20603" windowHeight="8495" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
     <sheet name="(经营性&amp;金融性)资产&amp;负债结构分析" sheetId="4" r:id="rId2"/>
     <sheet name="利润&amp;现金流结构分析" sheetId="3" r:id="rId3"/>
+    <sheet name="综合实力分析" sheetId="5" r:id="rId4"/>
+    <sheet name="资产负债表分析视角" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="169">
   <si>
     <t>项目</t>
   </si>
@@ -455,6 +457,75 @@
   </si>
   <si>
     <t>高估卖出点</t>
+  </si>
+  <si>
+    <t>2019（合并报表）</t>
+  </si>
+  <si>
+    <t>2019(母公司报表)</t>
+  </si>
+  <si>
+    <t>综合实力分析</t>
+  </si>
+  <si>
+    <t>投资净收益</t>
+  </si>
+  <si>
+    <t>营业利润</t>
+  </si>
+  <si>
+    <t>其他应收款</t>
+  </si>
+  <si>
+    <t>资产总计</t>
+  </si>
+  <si>
+    <t>经营战略视角</t>
+  </si>
+  <si>
+    <t>扩展战略</t>
+  </si>
+  <si>
+    <t>引资战略</t>
+  </si>
+  <si>
+    <t>投资者视角</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>负债及所有者权益</t>
+  </si>
+  <si>
+    <t>经营资产</t>
+  </si>
+  <si>
+    <t>干什么</t>
+  </si>
+  <si>
+    <t>给谁干</t>
+  </si>
+  <si>
+    <t>怎么干</t>
+  </si>
+  <si>
+    <t>怎么分</t>
+  </si>
+  <si>
+    <t>投在资产</t>
+  </si>
+  <si>
+    <t>股东入资</t>
+  </si>
+  <si>
+    <t>效率和效益</t>
+  </si>
+  <si>
+    <t>公平与和谐</t>
+  </si>
+  <si>
+    <t>利润分配</t>
   </si>
 </sst>
 </file>
@@ -462,22 +533,42 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -497,21 +588,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,15 +616,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,8 +648,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,7 +702,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -570,63 +710,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,6 +723,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -646,6 +737,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -667,13 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +782,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,19 +866,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,13 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,115 +950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,78 +1053,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1059,6 +1078,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1067,10 +1158,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,138 +1170,192 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1222,93 +1367,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1321,7 +1460,7 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="11" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="11" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="11" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1339,7 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="11" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="11" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1680,882 +1819,882 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20">
         <v>2019</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="20">
         <v>2018</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="20">
         <v>2017</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20">
         <v>2019</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="20">
         <v>2018</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="20">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="20">
         <v>361.79</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="20">
         <v>383.71</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="20">
         <v>358.25</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="20">
         <v>85.85</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="20">
         <v>62.99</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="20">
         <v>108.79</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="20">
         <v>139.51</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="20">
         <v>143</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="20">
         <v>130.33</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="20">
         <v>193.09</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="20">
         <v>200.38</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="20">
         <v>163.79</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="20">
         <v>110.16</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="20">
         <v>105.33</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="20">
         <v>128.91</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="20">
         <v>337.51</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="20">
         <v>278.99</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="20">
         <v>262.37</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="20">
         <v>12.73</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="20">
         <v>5.94</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="20">
         <v>6.29</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="58"/>
+      <c r="I7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="20">
         <v>55.83</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="20">
         <v>55.18</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="20">
         <v>282.29</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="20">
         <v>224.11</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="20">
         <v>225.38</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="58"/>
+      <c r="I8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="20">
         <v>31.56</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="20">
         <v>26.75</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="20">
         <v>24.81</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="20">
         <v>1005.47</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="20">
         <v>954.19</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="23">
         <v>905.82</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="58"/>
+      <c r="I9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="20">
         <v>21.17</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="20">
         <v>18.46</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="20">
         <v>19.7</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="59">
         <f>D4/D9</f>
         <v>0.359821774891344</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="59">
         <f>E4/E9</f>
         <v>0.40213165092906</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="59">
         <f>F4/F9</f>
         <v>0.395498001810514</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="58"/>
+      <c r="I10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="20">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="20">
         <v>124.97</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="20">
         <v>109.2</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="59">
         <f>D5/D9</f>
         <v>0.138751031855749</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="59">
         <f>E5/E9</f>
         <v>0.149865330804138</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="59">
         <f>F5/F9</f>
         <v>0.143880682696341</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="2" t="s">
+      <c r="H11" s="58"/>
+      <c r="I11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="20">
         <v>956.1</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="20">
         <v>824.29</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="23">
         <v>813.12</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="59">
         <f>D6/D9</f>
         <v>0.109560702954837</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="59">
         <f>E6/E9</f>
         <v>0.110386820234964</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="59">
         <f>F6/F9</f>
         <v>0.14231304232629</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="58"/>
+      <c r="I12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="43">
+      <c r="J12" s="59">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>0.0897918627758603</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="59">
         <f t="shared" si="0"/>
         <v>0.0764172803260988</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="59">
         <f t="shared" si="0"/>
         <v>0.13379329004329</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="59">
         <f>D7/D9</f>
         <v>0.0126607457209066</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="59">
         <f>E7/E9</f>
         <v>0.00622517527955648</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="59">
         <f>F7/F9</f>
         <v>0.00694398445607295</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="58"/>
+      <c r="I13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="59">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>0.201955862357494</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="59">
         <f t="shared" si="1"/>
         <v>0.243094056703345</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="59">
         <f t="shared" si="1"/>
         <v>0.201433982683983</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="59">
         <f>D8/D9</f>
         <v>0.280754274120561</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="59">
         <f>E8/E9</f>
         <v>0.234869365639967</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="59">
         <f>F8/F9</f>
         <v>0.248813230001546</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="58"/>
+      <c r="I14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="59">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>0.353007007635185</v>
       </c>
-      <c r="K14" s="43">
+      <c r="K14" s="59">
         <f t="shared" si="2"/>
         <v>0.338460978539106</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="59">
         <f t="shared" si="2"/>
         <v>0.32267070051161</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="20">
         <v>204.61</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="20">
         <v>139.94</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="20">
         <v>129.87</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="58"/>
+      <c r="I15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="59">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>0.058393473486037</v>
       </c>
-      <c r="K15" s="43">
+      <c r="K15" s="59">
         <f t="shared" si="3"/>
         <v>0.0669424595712674</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="20">
         <v>13.96</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="20">
         <v>14</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="20">
         <v>0</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="58"/>
+      <c r="I16" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="43">
+      <c r="J16" s="59">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>0.033009099466583</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="59">
         <f t="shared" si="4"/>
         <v>0.0324521709592498</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="59">
         <f t="shared" si="4"/>
         <v>0.0305121015348288</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="20">
         <v>0</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="20">
         <v>173.93</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="20">
         <v>172.02</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="4" t="s">
+      <c r="H17" s="58"/>
+      <c r="I17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="59">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>0.0221420353519506</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="59">
         <f t="shared" si="5"/>
         <v>0.0223950308750561</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="59">
         <f t="shared" si="5"/>
         <v>0.0242276662731208</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="20">
         <v>23.91</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="20">
         <v>38.74</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="20">
         <v>16.11</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="4" t="s">
+      <c r="H18" s="58"/>
+      <c r="I18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="59">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>0</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="59">
         <f t="shared" si="6"/>
         <v>0.151609263729998</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="59">
         <f t="shared" si="6"/>
         <v>0.134297520661157</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="20">
         <v>4.38</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="20">
         <v>2.32</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="20">
         <v>1.78</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="51">
         <v>132.76</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="51">
         <v>155.41</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="51">
         <v>160.36</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="20">
         <v>106.87</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="20">
         <v>92.46</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="20">
         <v>82.27</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="51">
         <v>1.42</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="51">
         <v>1.07</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="51">
         <v>1.06</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="20">
         <v>1.93</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="20">
         <v>5.38</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="20">
         <v>9.66</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="2" t="s">
+      <c r="H21" s="21"/>
+      <c r="I21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="51">
         <v>11.54</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="51">
         <v>4.05</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="51">
         <v>3.44</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="20">
         <v>233.52</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="20">
         <v>212.39</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="20">
         <v>203.45</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="51">
         <v>7.05</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="51">
         <v>6.44</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="51">
         <v>4.97</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="20">
         <v>869.07</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="20">
         <v>726.73</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="20">
         <v>665.82</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="20">
         <v>0.700715</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="20">
         <v>18.24</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="20">
         <v>11.97</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="59">
         <f>D15/D23</f>
         <v>0.235435580563131</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="59">
         <f>E15/E23</f>
         <v>0.1925611987946</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="59">
         <f>F15/F23</f>
         <v>0.195052716950527</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="21"/>
+      <c r="I24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="20">
         <v>268.55</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="20">
         <v>298.54</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="20">
         <v>280.3</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="59">
         <f>D16/D23</f>
         <v>0.0160631479627648</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="59">
         <f>E16/E23</f>
         <v>0.0192643760406203</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="59">
         <f>F16/F23</f>
         <v>0</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="21"/>
+      <c r="I25" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="43">
+      <c r="J25" s="59">
         <f t="shared" ref="J25:L25" si="7">J19/J24</f>
         <v>0.494358592440886</v>
       </c>
-      <c r="K25" s="43">
+      <c r="K25" s="59">
         <f t="shared" si="7"/>
         <v>0.520566758223354</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="59">
         <f t="shared" si="7"/>
         <v>0.57210132001427</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="59">
         <f>D17/D23</f>
         <v>0</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="59">
         <f>E17/E23</f>
         <v>0.239332351767507</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="59">
         <f>F17/F23</f>
         <v>0.258358114805803</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4" t="s">
+      <c r="H26" s="21"/>
+      <c r="I26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="59">
         <f t="shared" ref="J26:L26" si="8">J20/J24</f>
         <v>0.00528765592999441</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="59">
         <f t="shared" si="8"/>
         <v>0.0035841093320828</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="59">
         <f t="shared" si="8"/>
         <v>0.00378166250445951</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="59">
         <f>D18/D23</f>
         <v>0.0275121681797784</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="59">
         <f>E18/E23</f>
         <v>0.0533072805581165</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="59">
         <f>F18/F23</f>
         <v>0.0241957285752906</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4" t="s">
+      <c r="H27" s="21"/>
+      <c r="I27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="59">
         <f t="shared" ref="J27:L27" si="9">J21/J24</f>
         <v>0.0429715136846025</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="59">
         <f t="shared" si="9"/>
         <v>0.0135660213036779</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="59">
         <f t="shared" si="9"/>
         <v>0.012272565108812</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="59">
         <f>D19/D23</f>
         <v>0.00503987020608236</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="59">
         <f>E19/E23</f>
         <v>0.00319238231530279</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="59">
         <f>F19/F23</f>
         <v>0.00267339521191914</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4" t="s">
+      <c r="H28" s="21"/>
+      <c r="I28" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="43">
+      <c r="J28" s="59">
         <f t="shared" ref="J28:L28" si="10">J22/J24</f>
         <v>0.0262520945820145</v>
       </c>
-      <c r="K28" s="43">
+      <c r="K28" s="59">
         <f t="shared" si="10"/>
         <v>0.0215716486902928</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L28" s="59">
         <f t="shared" si="10"/>
         <v>0.0177310024973243</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="59">
         <f>D20/D23</f>
         <v>0.122970531717813</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="59">
         <f>E20/E23</f>
         <v>0.127227443479697</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="59">
         <f>F20/F23</f>
         <v>0.123561923643027</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4" t="s">
+      <c r="H29" s="21"/>
+      <c r="I29" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="43">
+      <c r="J29" s="59">
         <f t="shared" ref="J29:L29" si="11">J23/J24</f>
         <v>0.00260925339787749</v>
       </c>
-      <c r="K29" s="43">
+      <c r="K29" s="59">
         <f t="shared" si="11"/>
         <v>0.0610973403898975</v>
       </c>
-      <c r="L29" s="43">
+      <c r="L29" s="59">
         <f t="shared" si="11"/>
         <v>0.0427042454513022</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="59">
         <f>D21/D23</f>
         <v>0.00222076472551118</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="59">
         <f>E21/E23</f>
         <v>0.00740302450703838</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="59">
         <f>F21/F23</f>
         <v>0.0145084257006398</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="59">
         <f>D22/D23</f>
         <v>0.268701025233871</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="59">
         <f>E22/E23</f>
         <v>0.292254344804811</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="59">
         <f>F22/F23</f>
         <v>0.305563065092668</v>
       </c>
@@ -2580,7 +2719,7 @@
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -2597,633 +2736,633 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20">
         <v>2019</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="20">
         <v>2018</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="20">
         <v>2017</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20">
         <v>2019</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="20">
         <v>2018</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="20">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="20">
         <v>361.79</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="20">
         <v>383.71</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="20">
         <v>358.25</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="20">
         <v>193.09</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="20">
         <v>200.38</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="20">
         <v>163.79</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="20">
         <v>211.8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="20">
         <v>173.93</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="20">
         <v>172.02</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="20">
         <v>337.51</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="20">
         <v>278.99</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="20">
         <v>262.37</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="20">
         <v>139.51</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="20">
         <v>143</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="20">
         <v>130.33</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="20">
         <v>0</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="20">
         <v>0.146815</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="20">
         <v>0.005862</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="20">
         <v>110.16</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="20">
         <v>105.33</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="20">
         <v>128.91</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="20">
         <v>31.56</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="20">
         <v>26.75</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="20">
         <v>24.81</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="20">
         <v>12.73</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="20">
         <v>5.94</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="20">
         <v>6.29</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="20">
         <v>21.17</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="20">
         <v>18.46</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="20">
         <v>19.7</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="20">
         <v>282.29</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="20">
         <v>224.11</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="20">
         <v>225.38</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="20">
         <v>55.83</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="20">
         <v>55.18</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="20">
         <v>106.87</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="20">
         <v>92.46</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="20">
         <v>82.27</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="20">
         <v>11.54</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="20">
         <v>4.05</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="20">
         <v>3.44</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="40">
         <v>3.08</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="40">
         <v>17.76</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="40">
         <v>0.206817</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="35" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="51">
         <v>7.05</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="51">
         <v>6.44</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="51">
         <v>4.97</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="3"/>
-      <c r="C12" s="30" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="13">
         <v>204.61</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="13">
         <v>139.94</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="13">
         <v>129.87</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="40">
         <v>0</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="40">
         <v>1.05</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="40">
         <v>2.36</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="3"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="13">
         <v>0</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="40">
         <v>0</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="40">
         <v>1.68</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="40">
         <v>1.54</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="3"/>
-      <c r="C14" s="30" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="13">
         <v>0.294027</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="13">
         <v>0.308791</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="13">
         <v>0.31214</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="21"/>
+      <c r="I14" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="40">
         <v>70.05</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="40">
         <v>91.92</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="40">
         <v>62.11</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="3"/>
-      <c r="C15" s="30" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="13">
         <v>3.08</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="13">
         <v>2.46</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="13">
         <v>2.9</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="21"/>
+      <c r="I15" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="40">
         <v>0.427992</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="40">
         <v>2.19</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="40">
         <v>0.025246</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="3"/>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="13">
         <v>0</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="13">
         <v>2.34</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="13">
         <v>2.04</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="40">
         <v>1.42</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="40">
         <v>1.07</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="40">
         <v>1.06</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="3"/>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="13">
         <v>0</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="13">
         <v>0.045574</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="13">
         <v>0.045245</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="21"/>
+      <c r="I17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="40">
         <v>132.76</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="40">
         <v>155.41</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="40">
         <v>160.36</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="3"/>
-      <c r="C18" s="30" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="13">
         <v>15.79</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="13">
         <v>18.22</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="13">
         <v>20.77</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="22" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="40">
         <v>85.85</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="40">
         <v>62.99</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="40">
         <v>108.79</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="3"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="13">
         <v>0</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="13">
         <v>0</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="13">
         <v>0</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="22" t="s">
+      <c r="H19" s="21"/>
+      <c r="I19" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="40">
         <v>73.17</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="40">
         <v>46.55</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="40">
         <v>61.49</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="31"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="40">
         <v>1874.54</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="40">
         <v>1680.92</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="40">
         <v>1571.64</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="22" t="s">
+      <c r="H20" s="48"/>
+      <c r="I20" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="40">
         <v>1224.64</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="40">
         <v>1122.84</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="40">
         <v>1093.15</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="50">
         <f>SUM(D4:D10)/D20</f>
         <v>0.653573676742027</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="50">
         <f>SUM(E4:E10)/E20</f>
         <v>0.671346643504747</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="50">
         <f>SUM(F4:F10)/F20</f>
         <v>0.702100990048612</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="52">
         <f>SUM(J4:J11)/J20</f>
         <v>0.537096616148419</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="52">
         <f>SUM(K4:K11)/K20</f>
         <v>0.52580671778704</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="52">
         <f>SUM(L4:L11)/L20</f>
         <v>0.438261777432191</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="3"/>
-      <c r="C22" s="33" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="50">
         <f>SUM(D11:D19)/D20</f>
         <v>0.121018504273048</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="50">
         <f>SUM(E11:E19)/E20</f>
         <v>0.107723368750446</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="50">
         <f>SUM(F11:F19)/F20</f>
         <v>0.0993511249395536</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="33" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="52">
         <f>SUM(J12:J19)/J20</f>
         <v>0.296967265482101</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="52">
         <f>SUM(K12:K19)/K20</f>
         <v>0.323162694595846</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="52">
         <f>SUM(L12:L19)/L20</f>
         <v>0.363843247495769</v>
       </c>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="3"/>
-      <c r="I23" s="12" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="53">
         <f>SUM(J4:J11)/D20</f>
         <v>0.350886084052621</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="53">
         <f>SUM(K4:K11)/E20</f>
         <v>0.351234332984318</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="53">
         <f>SUM(L4:L11)/F20</f>
         <v>0.304831807538622</v>
       </c>
     </row>
     <row r="24" spans="8:12">
-      <c r="H24" s="3"/>
-      <c r="I24" s="12" t="s">
+      <c r="H24" s="21"/>
+      <c r="I24" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="53">
         <f>SUM(J14:J19)/D20</f>
         <v>0.194009192655265</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="53">
         <f>SUM(K14:K19)/E20</f>
         <v>0.214245770173476</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="53">
         <f>SUM(L14:L19)/F20</f>
         <v>0.250588713700339</v>
       </c>
@@ -3249,8 +3388,8 @@
   <sheetPr/>
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3262,752 +3401,752 @@
     <col min="9" max="9" width="9.16393442622951" customWidth="1"/>
     <col min="10" max="10" width="9.45081967213115" customWidth="1"/>
     <col min="11" max="11" width="12.4344262295082" customWidth="1"/>
-    <col min="12" max="12" width="8.72131147540984" style="1"/>
+    <col min="12" max="12" width="8.72131147540984" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20">
         <v>2019</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="20">
         <v>2018</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="20">
         <v>2017</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20">
         <v>2019</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="20">
         <v>2018</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="20">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="20">
         <v>2007.62</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="20">
         <v>1841.08</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="20">
         <v>1634.29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="22">
         <v>150.83</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="22">
         <v>191.43</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="22">
         <v>167.04</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="20">
         <v>1408.68</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="20">
         <v>1304.55</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="20">
         <v>1126.07</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="20">
         <v>61.94</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="20">
         <v>67.6</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="20">
         <v>43.35</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="20">
         <v>8.02</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="20">
         <v>8.68</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="20">
         <v>8.22</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="20">
         <v>38.91</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="20">
         <v>30.23</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="20">
         <v>26.54</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="20">
         <v>336.82</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="20">
         <v>289.23</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="20">
         <v>289.96</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="22">
         <v>-109.62</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="22">
         <v>-76.5</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="22">
         <v>-57.42</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="20">
         <v>101.13</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="20">
         <v>84.05</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="20">
         <v>71.65</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="20">
         <v>4.41</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="20">
         <v>29.73</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="20">
         <v>13.8</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="20">
         <v>62.67</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="20">
         <v>51.05</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="23">
         <v>45.1</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="20">
         <v>184.69</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="20">
         <v>156.84</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="20">
         <v>186.95</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="20">
         <v>8.93</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="20">
         <v>9.32</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="20">
         <v>16.04</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="20">
         <v>190.28</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="20">
         <v>224.18</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="23">
         <v>232.47</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="20">
         <v>8.61</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="20">
         <v>7.63</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="23">
         <v>6.71</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="20">
         <v>42.04</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="20">
         <v>38.36</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="20">
         <v>28.99</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="20">
         <v>1.5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="20">
         <v>0.996324</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="20">
         <v>0</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="20">
         <v>16.93</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="20">
         <v>29.59</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="20">
         <v>2.14</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="20">
         <v>54.8</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="20">
         <v>19.25</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="20">
         <v>14.83</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="22">
         <v>-60.13</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="22">
         <v>-105.02</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="22">
         <v>5.1</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="20">
         <v>4.86</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="20">
         <v>2.68</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="20">
         <v>0.135124</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="25">
         <f>I4-I5-I6</f>
         <v>49.98</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="25">
         <f>J4-J5-J6</f>
         <v>93.6</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="25">
         <f>K4-K5-K6</f>
         <v>97.15</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="20">
         <v>12.82</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="20">
         <v>9.32</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="20">
         <v>9.12</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="20">
         <v>3.91</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="20">
         <v>4.8</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="20">
         <v>6.9</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="28">
         <f>SUM(I14:K14)/3</f>
         <v>80.2433333333334</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="20">
         <v>2.1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="20">
         <v>2.36</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="20">
         <v>2.62</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="44">
         <v>0.08</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="20">
         <v>90.22</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="20">
         <v>95.32</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="20">
         <v>90.28</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="44">
         <v>0.03</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="30">
         <f>C4-C5</f>
         <v>598.94</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="30">
         <f>D4-D5</f>
         <v>536.53</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="30">
         <f>E4-E5</f>
         <v>508.22</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="29"/>
+      <c r="H19" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="44">
         <v>0.1</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="31">
         <f>C19/C4</f>
         <v>0.298333349936741</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="31">
         <f>D19/D4</f>
         <v>0.291421339648467</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="31">
         <f>E19/E4</f>
         <v>0.310972960735243</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="29"/>
+      <c r="H20" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="45">
         <v>90.28</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="32">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
         <v>81.3699999999999</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="32">
         <f>D4-D5-D6-D7-D8-D9-D10</f>
         <v>94.2</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="32">
         <f>E4-E5-E6-E7-E8-E9-E10</f>
         <v>77.25</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="28">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
         <v>81.7293209876543</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="33">
         <f>C21/C4</f>
         <v>0.0405305784959304</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="33">
         <f>D21/D4</f>
         <v>0.0511656201794599</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="33">
         <f>E21/E4</f>
         <v>0.047268232688201</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="29"/>
+      <c r="H22" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="28">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
         <v>83.2428269318702</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="35">
         <f>C21/I4</f>
         <v>0.539481535503546</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="35">
         <f>D21/J4</f>
         <v>0.49208587995612</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="35">
         <f>E21/K4</f>
         <v>0.46246408045977</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="28">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
         <v>84.7843607639418</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="36">
         <f>C7/C4</f>
         <v>0.167770793277612</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="36">
         <f>D7/D4</f>
         <v>0.157098007691138</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="36">
         <f>E7/E4</f>
         <v>0.17742261165399</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10" t="s">
+      <c r="G24" s="29"/>
+      <c r="H24" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="28">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
         <v>3215.58504929963</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="36">
         <f>C8/C4</f>
         <v>0.0503730785706458</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="36">
         <f>D8/D4</f>
         <v>0.0456525517630956</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="36">
         <f>E8/E4</f>
         <v>0.0438416682473735</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10" t="s">
+      <c r="G25" s="29"/>
+      <c r="H25" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="28">
         <f>SUM(I21:I24)</f>
         <v>3465.3415579831</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="36">
         <f>C16/C4</f>
         <v>0.00194757972126199</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="36">
         <f>D16/D4</f>
         <v>0.00260716535946292</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="36">
         <f>E16/E4</f>
         <v>0.00422201690030533</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20" t="s">
+      <c r="G26" s="37"/>
+      <c r="H26" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="38">
         <f>I25/I20</f>
         <v>38.3843770268398</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="36">
         <f>C18/C4</f>
         <v>0.0449387832358713</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="36">
         <f>D18/D4</f>
         <v>0.0517739587633346</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="36">
         <f>E18/E4</f>
         <v>0.0552411138781979</v>
       </c>
     </row>
     <row r="28" spans="7:10">
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="46">
         <v>0.1</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="7:10">
-      <c r="G29" s="23"/>
-      <c r="H29" s="22" t="s">
+      <c r="G29" s="41"/>
+      <c r="H29" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="46">
         <v>0.04</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="40">
         <f>1/I29</f>
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="7:10">
-      <c r="G30" s="23"/>
-      <c r="H30" s="22" t="s">
+      <c r="G30" s="41"/>
+      <c r="H30" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="46">
         <v>0.02</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="40">
         <f>1/I30</f>
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="7:10">
-      <c r="G31" s="23"/>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="41"/>
+      <c r="H31" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="40">
         <f>(C18*POWER(1+I28,3))*J29</f>
         <v>3002.0705</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="40">
         <f>I31/I20</f>
         <v>33.2528854674347</v>
       </c>
     </row>
     <row r="32" spans="7:10">
-      <c r="G32" s="23"/>
-      <c r="H32" s="22" t="s">
+      <c r="G32" s="41"/>
+      <c r="H32" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="40">
         <f>I31*0.7</f>
         <v>2101.44935</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="40">
         <f>I32/I20</f>
         <v>23.2770198272043</v>
       </c>
     </row>
     <row r="33" spans="7:10">
-      <c r="G33" s="24"/>
-      <c r="H33" s="22" t="s">
+      <c r="G33" s="42"/>
+      <c r="H33" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="40">
         <f>(C18*POWER(1+I28,3))*J30</f>
         <v>6004.141</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="40">
         <f>I33/I20</f>
         <v>66.5057709348693</v>
       </c>
@@ -4025,4 +4164,320 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="18.8770491803279" customWidth="1"/>
+    <col min="3" max="3" width="26.9672131147541" customWidth="1"/>
+    <col min="4" max="4" width="12.8852459016393" customWidth="1"/>
+    <col min="8" max="8" width="25.8770491803279" customWidth="1"/>
+    <col min="9" max="9" width="16.6147540983607" customWidth="1"/>
+    <col min="10" max="10" width="17.6147540983607" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
+        <v>2019</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2018</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2017</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="H4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="10"/>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="10"/>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="H6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="H8" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="10"/>
+      <c r="C9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="H9" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="H10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="10"/>
+      <c r="C11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="10"/>
+      <c r="C12" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="10"/>
+      <c r="C13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="10"/>
+      <c r="C14" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="27.4098360655738" customWidth="1"/>
+    <col min="3" max="3" width="18.7049180327869" customWidth="1"/>
+    <col min="4" max="4" width="23.0573770491803" customWidth="1"/>
+    <col min="6" max="7" width="23.0573770491803" customWidth="1"/>
+    <col min="8" max="8" width="20.6967213114754" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="18.25" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" ht="18.25" spans="2:8">
+      <c r="B3" s="6"/>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" ht="18.25" spans="2:8">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" ht="18.25" spans="2:8">
+      <c r="B5" s="6"/>
+      <c r="C5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" ht="18.25" spans="2:8">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F2:F5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/funds/stocks/海尔智家&财务报表同型分析.xlsx
+++ b/funds/stocks/海尔智家&财务报表同型分析.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="171">
   <si>
     <t>项目</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>利润分配</t>
+  </si>
+  <si>
+    <t>利润产生机制</t>
+  </si>
+  <si>
+    <t>利润协调机制</t>
   </si>
 </sst>
 </file>
@@ -533,16 +539,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\+0;\-0;0;@"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +578,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -588,29 +601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,7 +609,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,9 +623,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,46 +639,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +663,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,14 +722,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,25 +783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,55 +801,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,13 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,13 +849,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,25 +903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,19 +933,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,56 +1067,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1121,8 +1084,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,8 +1108,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,137 +1183,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,10 +1332,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,37 +1344,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1370,7 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,10 +1383,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1406,7 +1407,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1415,31 +1416,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1819,882 +1817,882 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15">
         <v>2019</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="15">
         <v>2018</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="15">
         <v>2017</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15">
         <v>2019</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="15">
         <v>2018</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="15">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>361.79</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="15">
         <v>383.71</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="15">
         <v>358.25</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="15">
         <v>85.85</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="15">
         <v>62.99</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="15">
         <v>108.79</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="21"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>139.51</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <v>143</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="15">
         <v>130.33</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="15">
         <v>193.09</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="15">
         <v>200.38</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="15">
         <v>163.79</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>110.16</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>105.33</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="15">
         <v>128.91</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="53"/>
+      <c r="I6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="15">
         <v>337.51</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="15">
         <v>278.99</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="15">
         <v>262.37</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="21"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>12.73</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>5.94</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="15">
         <v>6.29</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="15">
         <v>55.83</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="15">
         <v>55.18</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>282.29</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="15">
         <v>224.11</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="15">
         <v>225.38</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="53"/>
+      <c r="I8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="15">
         <v>31.56</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="15">
         <v>26.75</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="15">
         <v>24.81</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="21"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <v>1005.47</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="15">
         <v>954.19</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="19">
         <v>905.82</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="53"/>
+      <c r="I9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="15">
         <v>21.17</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="15">
         <v>18.46</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="15">
         <v>19.7</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="54">
         <f>D4/D9</f>
         <v>0.359821774891344</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="54">
         <f>E4/E9</f>
         <v>0.40213165092906</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="54">
         <f>F4/F9</f>
         <v>0.395498001810514</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="53"/>
+      <c r="I10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="15">
         <v>0</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="15">
         <v>124.97</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="15">
         <v>109.2</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="54">
         <f>D5/D9</f>
         <v>0.138751031855749</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="54">
         <f>E5/E9</f>
         <v>0.149865330804138</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="54">
         <f>F5/F9</f>
         <v>0.143880682696341</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="53"/>
+      <c r="I11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="15">
         <v>956.1</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="15">
         <v>824.29</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="19">
         <v>813.12</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="54">
         <f>D6/D9</f>
         <v>0.109560702954837</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="54">
         <f>E6/E9</f>
         <v>0.110386820234964</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="54">
         <f>F6/F9</f>
         <v>0.14231304232629</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="22" t="s">
+      <c r="H12" s="53"/>
+      <c r="I12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="54">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>0.0897918627758603</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="54">
         <f t="shared" si="0"/>
         <v>0.0764172803260988</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="54">
         <f t="shared" si="0"/>
         <v>0.13379329004329</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="54">
         <f>D7/D9</f>
         <v>0.0126607457209066</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="54">
         <f>E7/E9</f>
         <v>0.00622517527955648</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="54">
         <f>F7/F9</f>
         <v>0.00694398445607295</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="53"/>
+      <c r="I13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="54">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>0.201955862357494</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="54">
         <f t="shared" si="1"/>
         <v>0.243094056703345</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="54">
         <f t="shared" si="1"/>
         <v>0.201433982683983</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="54">
         <f>D8/D9</f>
         <v>0.280754274120561</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="54">
         <f>E8/E9</f>
         <v>0.234869365639967</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="54">
         <f>F8/F9</f>
         <v>0.248813230001546</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="53"/>
+      <c r="I14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="54">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>0.353007007635185</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="54">
         <f t="shared" si="2"/>
         <v>0.338460978539106</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="54">
         <f t="shared" si="2"/>
         <v>0.32267070051161</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="15">
         <v>204.61</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="15">
         <v>139.94</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="15">
         <v>129.87</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="53"/>
+      <c r="I15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="54">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>0.058393473486037</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="54">
         <f t="shared" si="3"/>
         <v>0.0669424595712674</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="21"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="15">
         <v>13.96</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>14</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="15">
         <v>0</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="53"/>
+      <c r="I16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="54">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>0.033009099466583</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="54">
         <f t="shared" si="4"/>
         <v>0.0324521709592498</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="54">
         <f t="shared" si="4"/>
         <v>0.0305121015348288</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="21"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="15">
         <v>0</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <v>173.93</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="15">
         <v>172.02</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="53"/>
+      <c r="I17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="54">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>0.0221420353519506</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="54">
         <f t="shared" si="5"/>
         <v>0.0223950308750561</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="54">
         <f t="shared" si="5"/>
         <v>0.0242276662731208</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="21"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="15">
         <v>23.91</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="15">
         <v>38.74</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="15">
         <v>16.11</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="22" t="s">
+      <c r="H18" s="53"/>
+      <c r="I18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="54">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>0</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="54">
         <f t="shared" si="6"/>
         <v>0.151609263729998</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="54">
         <f t="shared" si="6"/>
         <v>0.134297520661157</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="21"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="15">
         <v>4.38</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="15">
         <v>2.32</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="15">
         <v>1.78</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="46">
         <v>132.76</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="46">
         <v>155.41</v>
       </c>
-      <c r="L19" s="51">
+      <c r="L19" s="46">
         <v>160.36</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="21"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="15">
         <v>106.87</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="15">
         <v>92.46</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="15">
         <v>82.27</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="20" t="s">
+      <c r="H20" s="17"/>
+      <c r="I20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="46">
         <v>1.42</v>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="46">
         <v>1.07</v>
       </c>
-      <c r="L20" s="51">
+      <c r="L20" s="46">
         <v>1.06</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="21"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="15">
         <v>1.93</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="15">
         <v>5.38</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="15">
         <v>9.66</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="20" t="s">
+      <c r="H21" s="17"/>
+      <c r="I21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="46">
         <v>11.54</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="46">
         <v>4.05</v>
       </c>
-      <c r="L21" s="51">
+      <c r="L21" s="46">
         <v>3.44</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="21"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="15">
         <v>233.52</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="15">
         <v>212.39</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="15">
         <v>203.45</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20" t="s">
+      <c r="H22" s="17"/>
+      <c r="I22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="46">
         <v>7.05</v>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="46">
         <v>6.44</v>
       </c>
-      <c r="L22" s="51">
+      <c r="L22" s="46">
         <v>4.97</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="21"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="15">
         <v>869.07</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="15">
         <v>726.73</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="15">
         <v>665.82</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="20" t="s">
+      <c r="H23" s="17"/>
+      <c r="I23" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J23" s="15">
         <v>0.700715</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="15">
         <v>18.24</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="15">
         <v>11.97</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="54">
         <f>D15/D23</f>
         <v>0.235435580563131</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="54">
         <f>E15/E23</f>
         <v>0.1925611987946</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="54">
         <f>F15/F23</f>
         <v>0.195052716950527</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="20" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="15">
         <v>268.55</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="15">
         <v>298.54</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="15">
         <v>280.3</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="54">
         <f>D16/D23</f>
         <v>0.0160631479627648</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="54">
         <f>E16/E23</f>
         <v>0.0192643760406203</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="54">
         <f>F16/F23</f>
         <v>0</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="54">
         <f t="shared" ref="J25:L25" si="7">J19/J24</f>
         <v>0.494358592440886</v>
       </c>
-      <c r="K25" s="59">
+      <c r="K25" s="54">
         <f t="shared" si="7"/>
         <v>0.520566758223354</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="54">
         <f t="shared" si="7"/>
         <v>0.57210132001427</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="21"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="54">
         <f>D17/D23</f>
         <v>0</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="54">
         <f>E17/E23</f>
         <v>0.239332351767507</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="54">
         <f>F17/F23</f>
         <v>0.258358114805803</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="59">
+      <c r="J26" s="54">
         <f t="shared" ref="J26:L26" si="8">J20/J24</f>
         <v>0.00528765592999441</v>
       </c>
-      <c r="K26" s="59">
+      <c r="K26" s="54">
         <f t="shared" si="8"/>
         <v>0.0035841093320828</v>
       </c>
-      <c r="L26" s="59">
+      <c r="L26" s="54">
         <f t="shared" si="8"/>
         <v>0.00378166250445951</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="54">
         <f>D18/D23</f>
         <v>0.0275121681797784</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="54">
         <f>E18/E23</f>
         <v>0.0533072805581165</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="54">
         <f>F18/F23</f>
         <v>0.0241957285752906</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22" t="s">
+      <c r="H27" s="17"/>
+      <c r="I27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="59">
+      <c r="J27" s="54">
         <f t="shared" ref="J27:L27" si="9">J21/J24</f>
         <v>0.0429715136846025</v>
       </c>
-      <c r="K27" s="59">
+      <c r="K27" s="54">
         <f t="shared" si="9"/>
         <v>0.0135660213036779</v>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="54">
         <f t="shared" si="9"/>
         <v>0.012272565108812</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="54">
         <f>D19/D23</f>
         <v>0.00503987020608236</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="54">
         <f>E19/E23</f>
         <v>0.00319238231530279</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="54">
         <f>F19/F23</f>
         <v>0.00267339521191914</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22" t="s">
+      <c r="H28" s="17"/>
+      <c r="I28" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="54">
         <f t="shared" ref="J28:L28" si="10">J22/J24</f>
         <v>0.0262520945820145</v>
       </c>
-      <c r="K28" s="59">
+      <c r="K28" s="54">
         <f t="shared" si="10"/>
         <v>0.0215716486902928</v>
       </c>
-      <c r="L28" s="59">
+      <c r="L28" s="54">
         <f t="shared" si="10"/>
         <v>0.0177310024973243</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="54">
         <f>D20/D23</f>
         <v>0.122970531717813</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="54">
         <f>E20/E23</f>
         <v>0.127227443479697</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="54">
         <f>F20/F23</f>
         <v>0.123561923643027</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22" t="s">
+      <c r="H29" s="17"/>
+      <c r="I29" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="59">
+      <c r="J29" s="54">
         <f t="shared" ref="J29:L29" si="11">J23/J24</f>
         <v>0.00260925339787749</v>
       </c>
-      <c r="K29" s="59">
+      <c r="K29" s="54">
         <f t="shared" si="11"/>
         <v>0.0610973403898975</v>
       </c>
-      <c r="L29" s="59">
+      <c r="L29" s="54">
         <f t="shared" si="11"/>
         <v>0.0427042454513022</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="21"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="54">
         <f>D21/D23</f>
         <v>0.00222076472551118</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="54">
         <f>E21/E23</f>
         <v>0.00740302450703838</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="54">
         <f>F21/F23</f>
         <v>0.0145084257006398</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="21"/>
-      <c r="C31" s="22" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D31" s="54">
         <f>D22/D23</f>
         <v>0.268701025233871</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="54">
         <f>E22/E23</f>
         <v>0.292254344804811</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="54">
         <f>F22/F23</f>
         <v>0.305563065092668</v>
       </c>
@@ -2736,633 +2734,633 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15">
         <v>2019</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="15">
         <v>2018</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="15">
         <v>2017</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15">
         <v>2019</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="15">
         <v>2018</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="15">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>361.79</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="15">
         <v>383.71</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="15">
         <v>358.25</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="15">
         <v>193.09</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="15">
         <v>200.38</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="15">
         <v>163.79</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="21"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>211.8</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <v>173.93</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="15">
         <v>172.02</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="15">
         <v>337.51</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="15">
         <v>278.99</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="15">
         <v>262.37</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>139.51</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>143</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="15">
         <v>130.33</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="15">
         <v>0</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="15">
         <v>0.146815</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="15">
         <v>0.005862</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="21"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>110.16</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>105.33</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="15">
         <v>128.91</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="15">
         <v>31.56</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="15">
         <v>26.75</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="15">
         <v>24.81</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="21"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>12.73</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="15">
         <v>5.94</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="15">
         <v>6.29</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="15">
         <v>21.17</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="15">
         <v>18.46</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="15">
         <v>19.7</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="21"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <v>282.29</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="15">
         <v>224.11</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="15">
         <v>225.38</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="15">
         <v>55.83</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="15">
         <v>55.18</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="21"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>106.87</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>92.46</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="15">
         <v>82.27</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="15">
         <v>11.54</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="15">
         <v>4.05</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="15">
         <v>3.44</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="14">
         <v>3.08</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="14">
         <v>17.76</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="14">
         <v>0.206817</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="46">
         <v>7.05</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="46">
         <v>6.44</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="46">
         <v>4.97</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="21"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>204.61</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>139.94</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>129.87</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="14">
         <v>0</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="14">
         <v>1.05</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="14">
         <v>2.36</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="21"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>0</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>0</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>0</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="40" t="s">
+      <c r="H13" s="17"/>
+      <c r="I13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="14">
         <v>0</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="14">
         <v>1.68</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="14">
         <v>1.54</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="21"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>0.294027</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0.308791</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>0.31214</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="40" t="s">
+      <c r="H14" s="17"/>
+      <c r="I14" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="14">
         <v>70.05</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="14">
         <v>91.92</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="14">
         <v>62.11</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="21"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>3.08</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>2.46</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>2.9</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="40" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="14">
         <v>0.427992</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="14">
         <v>2.19</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="14">
         <v>0.025246</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="21"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>0</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>2.34</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>2.04</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="40" t="s">
+      <c r="H16" s="17"/>
+      <c r="I16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="14">
         <v>1.42</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="14">
         <v>1.07</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="14">
         <v>1.06</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="21"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>0</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>0.045574</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>0.045245</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="40" t="s">
+      <c r="H17" s="17"/>
+      <c r="I17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="14">
         <v>132.76</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="14">
         <v>155.41</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="14">
         <v>160.36</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="21"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>15.79</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>18.22</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>20.77</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="40" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="14">
         <v>85.85</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="14">
         <v>62.99</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="14">
         <v>108.79</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="21"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>0</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>0</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>0</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="40" t="s">
+      <c r="H19" s="17"/>
+      <c r="I19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="14">
         <v>73.17</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="14">
         <v>46.55</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="14">
         <v>61.49</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="48"/>
-      <c r="C20" s="40" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="14">
         <v>1874.54</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="14">
         <v>1680.92</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="14">
         <v>1571.64</v>
       </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="40" t="s">
+      <c r="H20" s="43"/>
+      <c r="I20" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="14">
         <v>1224.64</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="14">
         <v>1122.84</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="14">
         <v>1093.15</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="45">
         <f>SUM(D4:D10)/D20</f>
         <v>0.653573676742027</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="45">
         <f>SUM(E4:E10)/E20</f>
         <v>0.671346643504747</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="45">
         <f>SUM(F4:F10)/F20</f>
         <v>0.702100990048612</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="47">
         <f>SUM(J4:J11)/J20</f>
         <v>0.537096616148419</v>
       </c>
-      <c r="K21" s="52">
+      <c r="K21" s="47">
         <f>SUM(K4:K11)/K20</f>
         <v>0.52580671778704</v>
       </c>
-      <c r="L21" s="52">
+      <c r="L21" s="47">
         <f>SUM(L4:L11)/L20</f>
         <v>0.438261777432191</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="21"/>
-      <c r="C22" s="49" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="45">
         <f>SUM(D11:D19)/D20</f>
         <v>0.121018504273048</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="45">
         <f>SUM(E11:E19)/E20</f>
         <v>0.107723368750446</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="45">
         <f>SUM(F11:F19)/F20</f>
         <v>0.0993511249395536</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="49" t="s">
+      <c r="H22" s="17"/>
+      <c r="I22" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="47">
         <f>SUM(J12:J19)/J20</f>
         <v>0.296967265482101</v>
       </c>
-      <c r="K22" s="52">
+      <c r="K22" s="47">
         <f>SUM(K12:K19)/K20</f>
         <v>0.323162694595846</v>
       </c>
-      <c r="L22" s="52">
+      <c r="L22" s="47">
         <f>SUM(L12:L19)/L20</f>
         <v>0.363843247495769</v>
       </c>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="21"/>
-      <c r="I23" s="30" t="s">
+      <c r="H23" s="17"/>
+      <c r="I23" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="48">
         <f>SUM(J4:J11)/D20</f>
         <v>0.350886084052621</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="48">
         <f>SUM(K4:K11)/E20</f>
         <v>0.351234332984318</v>
       </c>
-      <c r="L23" s="53">
+      <c r="L23" s="48">
         <f>SUM(L4:L11)/F20</f>
         <v>0.304831807538622</v>
       </c>
     </row>
     <row r="24" spans="8:12">
-      <c r="H24" s="21"/>
-      <c r="I24" s="30" t="s">
+      <c r="H24" s="17"/>
+      <c r="I24" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="48">
         <f>SUM(J14:J19)/D20</f>
         <v>0.194009192655265</v>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="48">
         <f>SUM(K14:K19)/E20</f>
         <v>0.214245770173476</v>
       </c>
-      <c r="L24" s="53">
+      <c r="L24" s="48">
         <f>SUM(L14:L19)/F20</f>
         <v>0.250588713700339</v>
       </c>
@@ -3401,752 +3399,752 @@
     <col min="9" max="9" width="9.16393442622951" customWidth="1"/>
     <col min="10" max="10" width="9.45081967213115" customWidth="1"/>
     <col min="11" max="11" width="12.4344262295082" customWidth="1"/>
-    <col min="12" max="12" width="8.72131147540984" style="19"/>
+    <col min="12" max="12" width="8.72131147540984" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15">
         <v>2019</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="15">
         <v>2018</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="15">
         <v>2017</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="15">
         <v>2019</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="15">
         <v>2018</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="15">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="15">
         <v>2007.62</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>1841.08</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="15">
         <v>1634.29</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="18">
         <v>150.83</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="18">
         <v>191.43</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="18">
         <v>167.04</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="15">
         <v>1408.68</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="15">
         <v>1304.55</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="15">
         <v>1126.07</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="15">
         <v>61.94</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="15">
         <v>67.6</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="15">
         <v>43.35</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <v>8.02</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <v>8.68</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>8.22</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="15">
         <v>38.91</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="15">
         <v>30.23</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="15">
         <v>26.54</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="15">
         <v>336.82</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>289.23</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>289.96</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="18">
         <v>-109.62</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="18">
         <v>-76.5</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="18">
         <v>-57.42</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <v>101.13</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>84.05</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="15">
         <v>71.65</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="15">
         <v>4.41</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="15">
         <v>29.73</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="15">
         <v>13.8</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="15">
         <v>62.67</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="15">
         <v>51.05</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>45.1</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="15">
         <v>184.69</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="15">
         <v>156.84</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="15">
         <v>186.95</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="15">
         <v>8.93</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="15">
         <v>9.32</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>16.04</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="15">
         <v>190.28</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="15">
         <v>224.18</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="19">
         <v>232.47</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <v>8.61</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="15">
         <v>7.63</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <v>6.71</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="15">
         <v>42.04</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="15">
         <v>38.36</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="15">
         <v>28.99</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <v>1.5</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="15">
         <v>0.996324</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>0</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="15">
         <v>16.93</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="15">
         <v>29.59</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="15">
         <v>2.14</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <v>54.8</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="15">
         <v>19.25</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="15">
         <v>14.83</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="18">
         <v>-60.13</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="18">
         <v>-105.02</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="18">
         <v>5.1</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>4.86</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="15">
         <v>2.68</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>0.135124</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="21">
         <f>I4-I5-I6</f>
         <v>49.98</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="21">
         <f>J4-J5-J6</f>
         <v>93.6</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="21">
         <f>K4-K5-K6</f>
         <v>97.15</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="15">
         <v>12.82</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="15">
         <v>9.32</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="15">
         <v>9.12</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="15">
         <v>3.91</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="15">
         <v>4.8</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>6.9</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="24">
         <f>SUM(I14:K14)/3</f>
         <v>80.2433333333334</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="15">
         <v>2.1</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="15">
         <v>2.36</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <v>2.62</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="25"/>
+      <c r="H17" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="39">
         <v>0.08</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="15">
         <v>90.22</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="15">
         <v>95.32</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="15">
         <v>90.28</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="25"/>
+      <c r="H18" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="39">
         <v>0.03</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="26">
         <f>C4-C5</f>
         <v>598.94</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="26">
         <f>D4-D5</f>
         <v>536.53</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="26">
         <f>E4-E5</f>
         <v>508.22</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="28" t="s">
+      <c r="G19" s="25"/>
+      <c r="H19" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="39">
         <v>0.1</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="27">
         <f>C19/C4</f>
         <v>0.298333349936741</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="27">
         <f>D19/D4</f>
         <v>0.291421339648467</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="27">
         <f>E19/E4</f>
         <v>0.310972960735243</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="25"/>
+      <c r="H20" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="40">
         <v>90.28</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="28">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
         <v>81.3699999999999</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="28">
         <f>D4-D5-D6-D7-D8-D9-D10</f>
         <v>94.2</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="28">
         <f>E4-E5-E6-E7-E8-E9-E10</f>
         <v>77.25</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="24">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
         <v>81.7293209876543</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="29">
         <f>C21/C4</f>
         <v>0.0405305784959304</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="29">
         <f>D21/D4</f>
         <v>0.0511656201794599</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="29">
         <f>E21/E4</f>
         <v>0.047268232688201</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="24">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
         <v>83.2428269318702</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="31">
         <f>C21/I4</f>
         <v>0.539481535503546</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="31">
         <f>D21/J4</f>
         <v>0.49208587995612</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="31">
         <f>E21/K4</f>
         <v>0.46246408045977</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="24">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
         <v>84.7843607639418</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="32">
         <f>C7/C4</f>
         <v>0.167770793277612</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="32">
         <f>D7/D4</f>
         <v>0.157098007691138</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="32">
         <f>E7/E4</f>
         <v>0.17742261165399</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="28" t="s">
+      <c r="G24" s="25"/>
+      <c r="H24" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="24">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
         <v>3215.58504929963</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="32">
         <f>C8/C4</f>
         <v>0.0503730785706458</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="32">
         <f>D8/D4</f>
         <v>0.0456525517630956</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="32">
         <f>E8/E4</f>
         <v>0.0438416682473735</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="28" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="24">
         <f>SUM(I21:I24)</f>
         <v>3465.3415579831</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="32">
         <f>C16/C4</f>
         <v>0.00194757972126199</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="32">
         <f>D16/D4</f>
         <v>0.00260716535946292</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="32">
         <f>E16/E4</f>
         <v>0.00422201690030533</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38" t="s">
+      <c r="G26" s="33"/>
+      <c r="H26" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="34">
         <f>I25/I20</f>
         <v>38.3843770268398</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="32">
         <f>C18/C4</f>
         <v>0.0449387832358713</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="32">
         <f>D18/D4</f>
         <v>0.0517739587633346</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="32">
         <f>E18/E4</f>
         <v>0.0552411138781979</v>
       </c>
     </row>
     <row r="28" spans="7:10">
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="41">
         <v>0.1</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="7:10">
-      <c r="G29" s="41"/>
-      <c r="H29" s="40" t="s">
+      <c r="G29" s="36"/>
+      <c r="H29" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="41">
         <v>0.04</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="14">
         <f>1/I29</f>
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="7:10">
-      <c r="G30" s="41"/>
-      <c r="H30" s="40" t="s">
+      <c r="G30" s="36"/>
+      <c r="H30" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="41">
         <v>0.02</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="14">
         <f>1/I30</f>
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="7:10">
-      <c r="G31" s="41"/>
-      <c r="H31" s="40" t="s">
+      <c r="G31" s="36"/>
+      <c r="H31" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="14">
         <f>(C18*POWER(1+I28,3))*J29</f>
         <v>3002.0705</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="14">
         <f>I31/I20</f>
         <v>33.2528854674347</v>
       </c>
     </row>
     <row r="32" spans="7:10">
-      <c r="G32" s="41"/>
-      <c r="H32" s="40" t="s">
+      <c r="G32" s="36"/>
+      <c r="H32" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="14">
         <f>I31*0.7</f>
         <v>2101.44935</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="14">
         <f>I32/I20</f>
         <v>23.2770198272043</v>
       </c>
     </row>
     <row r="33" spans="7:10">
-      <c r="G33" s="42"/>
-      <c r="H33" s="40" t="s">
+      <c r="G33" s="37"/>
+      <c r="H33" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="14">
         <f>(C18*POWER(1+I28,3))*J30</f>
         <v>6004.141</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J33" s="14">
         <f>I33/I20</f>
         <v>66.5057709348693</v>
       </c>
@@ -4212,154 +4210,154 @@
       <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="H4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="10"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="H5" s="13" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="H5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="10"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="H6" s="13" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="H6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="10"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="H7" s="13" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="H8" s="13" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="10"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="H9" s="13" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="10"/>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="H10" s="13" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="H10" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="10"/>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="H11" s="13" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="10"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="H12" s="16" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="10"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="H13" s="16" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="10"/>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
-      <c r="H14" s="16" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4374,13 +4372,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H6"/>
+  <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="27.4098360655738" customWidth="1"/>
     <col min="3" max="3" width="18.7049180327869" customWidth="1"/>
@@ -4411,7 +4409,7 @@
       </c>
     </row>
     <row r="3" ht="18.25" spans="2:8">
-      <c r="B3" s="6"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>159</v>
       </c>
@@ -4419,7 +4417,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
         <v>160</v>
       </c>
@@ -4428,13 +4426,13 @@
       </c>
     </row>
     <row r="4" ht="18.25" spans="2:8">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
         <v>162</v>
       </c>
@@ -4443,7 +4441,7 @@
       </c>
     </row>
     <row r="5" ht="18.25" spans="2:8">
-      <c r="B5" s="6"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>164</v>
       </c>
@@ -4451,7 +4449,7 @@
         <v>165</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
         <v>166</v>
       </c>
@@ -4460,8 +4458,8 @@
       </c>
     </row>
     <row r="6" ht="18.25" spans="2:8">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
         <v>168</v>
       </c>
@@ -4469,6 +4467,14 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="18.25" spans="7:8">
+      <c r="G7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>170</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/funds/stocks/海尔智家&财务报表同型分析.xlsx
+++ b/funds/stocks/海尔智家&财务报表同型分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20603" windowHeight="8495" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20603" windowHeight="8495" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="资产&amp;负债结构分析" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="204">
   <si>
     <t>项目</t>
   </si>
@@ -478,6 +478,105 @@
   </si>
   <si>
     <t>资产总计</t>
+  </si>
+  <si>
+    <t>股票的价格=</t>
+  </si>
+  <si>
+    <t>价值x情绪</t>
+  </si>
+  <si>
+    <t>收益评价指标</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>风险评价指标</t>
+  </si>
+  <si>
+    <t>净收入</t>
+  </si>
+  <si>
+    <t>利润是否为正</t>
+  </si>
+  <si>
+    <t>现金流质量</t>
+  </si>
+  <si>
+    <t>净收入与现金流查询是否越来越大</t>
+  </si>
+  <si>
+    <t>营运现金流</t>
+  </si>
+  <si>
+    <t>1年现金流是否为正</t>
+  </si>
+  <si>
+    <t>应收账款周转率</t>
+  </si>
+  <si>
+    <t>应收账款周转天数是否在增加</t>
+  </si>
+  <si>
+    <t>资产回报率(ROA)</t>
+  </si>
+  <si>
+    <t>ROA是否每年改善</t>
+  </si>
+  <si>
+    <t>库存周转率</t>
+  </si>
+  <si>
+    <t>库存周转天数是否在增加</t>
+  </si>
+  <si>
+    <t>盈利质量</t>
+  </si>
+  <si>
+    <t>营业收付是否大于资产回报</t>
+  </si>
+  <si>
+    <t>其他流动资产</t>
+  </si>
+  <si>
+    <t>与收入相关其他流动资产是否在增加</t>
+  </si>
+  <si>
+    <t>长期债务与资产比率</t>
+  </si>
+  <si>
+    <t>是否每年在下降</t>
+  </si>
+  <si>
+    <t>总资产折旧</t>
+  </si>
+  <si>
+    <t>总资产折旧是否在减少</t>
+  </si>
+  <si>
+    <t>流动比率</t>
+  </si>
+  <si>
+    <t>流动资金是否每年在增加</t>
+  </si>
+  <si>
+    <t>商誉是否过大</t>
+  </si>
+  <si>
+    <t>流通股</t>
+  </si>
+  <si>
+    <t>1年内是否已被稀释</t>
+  </si>
+  <si>
+    <t>是否每年有所增长</t>
+  </si>
+  <si>
+    <t>资产周转率</t>
+  </si>
+  <si>
+    <t>销售额相对于资产是否在增涨</t>
   </si>
   <si>
     <t>经营战略视角</t>
@@ -539,16 +638,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\+0;\-0;0;@"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,82 +694,34 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFFC000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,7 +742,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,14 +818,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -722,23 +851,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,6 +896,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -795,19 +1028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,25 +1046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,97 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,19 +1070,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,6 +1179,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1081,11 +1221,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,39 +1268,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1148,21 +1276,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1171,10 +1284,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,137 +1296,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1362,6 +1475,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1407,7 +1544,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1416,7 +1553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1428,7 +1565,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1845,19 +1982,19 @@
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -1872,7 +2009,7 @@
       <c r="F4" s="15">
         <v>358.25</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="60" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="15" t="s">
@@ -1889,7 +2026,7 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="17"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +2039,7 @@
       <c r="F5" s="15">
         <v>130.33</v>
       </c>
-      <c r="H5" s="53"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="15" t="s">
         <v>6</v>
       </c>
@@ -1917,7 +2054,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="17"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
@@ -1930,7 +2067,7 @@
       <c r="F6" s="15">
         <v>128.91</v>
       </c>
-      <c r="H6" s="53"/>
+      <c r="H6" s="61"/>
       <c r="I6" s="15" t="s">
         <v>8</v>
       </c>
@@ -1945,7 +2082,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="17"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
@@ -1958,7 +2095,7 @@
       <c r="F7" s="15">
         <v>6.29</v>
       </c>
-      <c r="H7" s="53"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="15" t="s">
         <v>10</v>
       </c>
@@ -1968,12 +2105,12 @@
       <c r="K7" s="15">
         <v>55.18</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="17"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1986,7 +2123,7 @@
       <c r="F8" s="15">
         <v>225.38</v>
       </c>
-      <c r="H8" s="53"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="15" t="s">
         <v>12</v>
       </c>
@@ -2001,7 +2138,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="17"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
@@ -2011,10 +2148,10 @@
       <c r="E9" s="15">
         <v>954.19</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="27">
         <v>905.82</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="61"/>
       <c r="I9" s="15" t="s">
         <v>14</v>
       </c>
@@ -2029,23 +2166,23 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="62">
         <f>D4/D9</f>
         <v>0.359821774891344</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="62">
         <f>E4/E9</f>
         <v>0.40213165092906</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="62">
         <f>F4/F9</f>
         <v>0.395498001810514</v>
       </c>
-      <c r="H10" s="53"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="15" t="s">
         <v>16</v>
       </c>
@@ -2060,23 +2197,23 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="62">
         <f>D5/D9</f>
         <v>0.138751031855749</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="62">
         <f>E5/E9</f>
         <v>0.149865330804138</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="62">
         <f>F5/F9</f>
         <v>0.143880682696341</v>
       </c>
-      <c r="H11" s="53"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="15" t="s">
         <v>18</v>
       </c>
@@ -2086,114 +2223,114 @@
       <c r="K11" s="15">
         <v>824.29</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="27">
         <v>813.12</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="62">
         <f>D6/D9</f>
         <v>0.109560702954837</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="62">
         <f>E6/E9</f>
         <v>0.110386820234964</v>
       </c>
-      <c r="F12" s="54">
+      <c r="F12" s="62">
         <f>F6/F9</f>
         <v>0.14231304232629</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="18" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="62">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>0.0897918627758603</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="62">
         <f t="shared" si="0"/>
         <v>0.0764172803260988</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="62">
         <f t="shared" si="0"/>
         <v>0.13379329004329</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="62">
         <f>D7/D9</f>
         <v>0.0126607457209066</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="62">
         <f>E7/E9</f>
         <v>0.00622517527955648</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="62">
         <f>F7/F9</f>
         <v>0.00694398445607295</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="18" t="s">
+      <c r="H13" s="61"/>
+      <c r="I13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="62">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>0.201955862357494</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="62">
         <f t="shared" si="1"/>
         <v>0.243094056703345</v>
       </c>
-      <c r="L13" s="54">
+      <c r="L13" s="62">
         <f t="shared" si="1"/>
         <v>0.201433982683983</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="62">
         <f>D8/D9</f>
         <v>0.280754274120561</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="62">
         <f>E8/E9</f>
         <v>0.234869365639967</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="62">
         <f>F8/F9</f>
         <v>0.248813230001546</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="18" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="62">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>0.353007007635185</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="62">
         <f t="shared" si="2"/>
         <v>0.338460978539106</v>
       </c>
-      <c r="L14" s="54">
+      <c r="L14" s="62">
         <f t="shared" si="2"/>
         <v>0.32267070051161</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -2208,25 +2345,25 @@
       <c r="F15" s="15">
         <v>129.87</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="18" t="s">
+      <c r="H15" s="61"/>
+      <c r="I15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="62">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>0.058393473486037</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="62">
         <f t="shared" si="3"/>
         <v>0.0669424595712674</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="17"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="15" t="s">
         <v>28</v>
       </c>
@@ -2239,25 +2376,25 @@
       <c r="F16" s="15">
         <v>0</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="61"/>
+      <c r="I16" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="62">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>0.033009099466583</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="62">
         <f t="shared" si="4"/>
         <v>0.0324521709592498</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="62">
         <f t="shared" si="4"/>
         <v>0.0305121015348288</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="17"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="15" t="s">
         <v>30</v>
       </c>
@@ -2270,25 +2407,25 @@
       <c r="F17" s="15">
         <v>172.02</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="18" t="s">
+      <c r="H17" s="61"/>
+      <c r="I17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="62">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>0.0221420353519506</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="62">
         <f t="shared" si="5"/>
         <v>0.0223950308750561</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="62">
         <f t="shared" si="5"/>
         <v>0.0242276662731208</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="17"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="15" t="s">
         <v>32</v>
       </c>
@@ -2301,25 +2438,25 @@
       <c r="F18" s="15">
         <v>16.11</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="18" t="s">
+      <c r="H18" s="61"/>
+      <c r="I18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="62">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>0</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="62">
         <f t="shared" si="6"/>
         <v>0.151609263729998</v>
       </c>
-      <c r="L18" s="54">
+      <c r="L18" s="62">
         <f t="shared" si="6"/>
         <v>0.134297520661157</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="17"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="15" t="s">
         <v>34</v>
       </c>
@@ -2332,24 +2469,24 @@
       <c r="F19" s="15">
         <v>1.78</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="25" t="s">
         <v>35</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="54">
         <v>132.76</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="54">
         <v>155.41</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="54">
         <v>160.36</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="17"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="15" t="s">
         <v>37</v>
       </c>
@@ -2362,22 +2499,22 @@
       <c r="F20" s="15">
         <v>82.27</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="54">
         <v>1.42</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="54">
         <v>1.07</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="54">
         <v>1.06</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="17"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="15" t="s">
         <v>39</v>
       </c>
@@ -2390,22 +2527,22 @@
       <c r="F21" s="15">
         <v>9.66</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="54">
         <v>11.54</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="54">
         <v>4.05</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="54">
         <v>3.44</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="17"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="15" t="s">
         <v>41</v>
       </c>
@@ -2418,22 +2555,22 @@
       <c r="F22" s="15">
         <v>203.45</v>
       </c>
-      <c r="H22" s="17"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="54">
         <v>7.05</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="54">
         <v>6.44</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="54">
         <v>4.97</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="17"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="15" t="s">
         <v>43</v>
       </c>
@@ -2446,7 +2583,7 @@
       <c r="F23" s="15">
         <v>665.82</v>
       </c>
-      <c r="H23" s="17"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="15" t="s">
         <v>44</v>
       </c>
@@ -2461,23 +2598,23 @@
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="62">
         <f>D15/D23</f>
         <v>0.235435580563131</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="62">
         <f>E15/E23</f>
         <v>0.1925611987946</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="62">
         <f>F15/F23</f>
         <v>0.195052716950527</v>
       </c>
-      <c r="H24" s="17"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="15" t="s">
         <v>46</v>
       </c>
@@ -2492,207 +2629,207 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="62">
         <f>D16/D23</f>
         <v>0.0160631479627648</v>
       </c>
-      <c r="E25" s="54">
+      <c r="E25" s="62">
         <f>E16/E23</f>
         <v>0.0192643760406203</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="62">
         <f>F16/F23</f>
         <v>0</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="18" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="62">
         <f t="shared" ref="J25:L25" si="7">J19/J24</f>
         <v>0.494358592440886</v>
       </c>
-      <c r="K25" s="54">
+      <c r="K25" s="62">
         <f t="shared" si="7"/>
         <v>0.520566758223354</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="62">
         <f t="shared" si="7"/>
         <v>0.57210132001427</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="62">
         <f>D17/D23</f>
         <v>0</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="62">
         <f>E17/E23</f>
         <v>0.239332351767507</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="62">
         <f>F17/F23</f>
         <v>0.258358114805803</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18" t="s">
+      <c r="H26" s="25"/>
+      <c r="I26" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="62">
         <f t="shared" ref="J26:L26" si="8">J20/J24</f>
         <v>0.00528765592999441</v>
       </c>
-      <c r="K26" s="54">
+      <c r="K26" s="62">
         <f t="shared" si="8"/>
         <v>0.0035841093320828</v>
       </c>
-      <c r="L26" s="54">
+      <c r="L26" s="62">
         <f t="shared" si="8"/>
         <v>0.00378166250445951</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="62">
         <f>D18/D23</f>
         <v>0.0275121681797784</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="62">
         <f>E18/E23</f>
         <v>0.0533072805581165</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="62">
         <f>F18/F23</f>
         <v>0.0241957285752906</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18" t="s">
+      <c r="H27" s="25"/>
+      <c r="I27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="62">
         <f t="shared" ref="J27:L27" si="9">J21/J24</f>
         <v>0.0429715136846025</v>
       </c>
-      <c r="K27" s="54">
+      <c r="K27" s="62">
         <f t="shared" si="9"/>
         <v>0.0135660213036779</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="62">
         <f t="shared" si="9"/>
         <v>0.012272565108812</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="62">
         <f>D19/D23</f>
         <v>0.00503987020608236</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="62">
         <f>E19/E23</f>
         <v>0.00319238231530279</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F28" s="62">
         <f>F19/F23</f>
         <v>0.00267339521191914</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18" t="s">
+      <c r="H28" s="25"/>
+      <c r="I28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28" s="62">
         <f t="shared" ref="J28:L28" si="10">J22/J24</f>
         <v>0.0262520945820145</v>
       </c>
-      <c r="K28" s="54">
+      <c r="K28" s="62">
         <f t="shared" si="10"/>
         <v>0.0215716486902928</v>
       </c>
-      <c r="L28" s="54">
+      <c r="L28" s="62">
         <f t="shared" si="10"/>
         <v>0.0177310024973243</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="62">
         <f>D20/D23</f>
         <v>0.122970531717813</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="62">
         <f>E20/E23</f>
         <v>0.127227443479697</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="62">
         <f>F20/F23</f>
         <v>0.123561923643027</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="18" t="s">
+      <c r="H29" s="25"/>
+      <c r="I29" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="62">
         <f t="shared" ref="J29:L29" si="11">J23/J24</f>
         <v>0.00260925339787749</v>
       </c>
-      <c r="K29" s="54">
+      <c r="K29" s="62">
         <f t="shared" si="11"/>
         <v>0.0610973403898975</v>
       </c>
-      <c r="L29" s="54">
+      <c r="L29" s="62">
         <f t="shared" si="11"/>
         <v>0.0427042454513022</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="62">
         <f>D21/D23</f>
         <v>0.00222076472551118</v>
       </c>
-      <c r="E30" s="54">
+      <c r="E30" s="62">
         <f>E21/E23</f>
         <v>0.00740302450703838</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="62">
         <f>F21/F23</f>
         <v>0.0145084257006398</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="17"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="62">
         <f>D22/D23</f>
         <v>0.268701025233871</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="62">
         <f>E22/E23</f>
         <v>0.292254344804811</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="62">
         <f>F22/F23</f>
         <v>0.305563065092668</v>
       </c>
@@ -2762,19 +2899,19 @@
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -2789,7 +2926,7 @@
       <c r="F4" s="15">
         <v>358.25</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="25" t="s">
         <v>60</v>
       </c>
       <c r="I4" s="15" t="s">
@@ -2806,7 +2943,7 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="17"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="15" t="s">
         <v>30</v>
       </c>
@@ -2819,7 +2956,7 @@
       <c r="F5" s="15">
         <v>172.02</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="15" t="s">
         <v>8</v>
       </c>
@@ -2834,7 +2971,7 @@
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="17"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
@@ -2847,7 +2984,7 @@
       <c r="F6" s="15">
         <v>130.33</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="15" t="s">
         <v>61</v>
       </c>
@@ -2862,7 +2999,7 @@
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="17"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
@@ -2875,7 +3012,7 @@
       <c r="F7" s="15">
         <v>128.91</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="15" t="s">
         <v>12</v>
       </c>
@@ -2890,7 +3027,7 @@
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="17"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
@@ -2903,7 +3040,7 @@
       <c r="F8" s="15">
         <v>6.29</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="15" t="s">
         <v>14</v>
       </c>
@@ -2918,7 +3055,7 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="17"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
@@ -2931,7 +3068,7 @@
       <c r="F9" s="15">
         <v>225.38</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="15" t="s">
         <v>10</v>
       </c>
@@ -2941,12 +3078,12 @@
       <c r="K9" s="15">
         <v>55.18</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="17"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="15" t="s">
         <v>37</v>
       </c>
@@ -2959,7 +3096,7 @@
       <c r="F10" s="15">
         <v>82.27</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="15" t="s">
         <v>40</v>
       </c>
@@ -2974,7 +3111,7 @@
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -2989,22 +3126,22 @@
       <c r="F11" s="14">
         <v>0.206817</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="46" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="54">
         <v>7.05</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="54">
         <v>6.44</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="54">
         <v>4.97</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="17"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="12" t="s">
         <v>26</v>
       </c>
@@ -3017,7 +3154,7 @@
       <c r="F12" s="12">
         <v>129.87</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="25" t="s">
         <v>65</v>
       </c>
       <c r="I12" s="14" t="s">
@@ -3034,7 +3171,7 @@
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="17"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="12" t="s">
         <v>67</v>
       </c>
@@ -3047,7 +3184,7 @@
       <c r="F13" s="12">
         <v>0</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="14" t="s">
         <v>68</v>
       </c>
@@ -3062,7 +3199,7 @@
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="17"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="12" t="s">
         <v>69</v>
       </c>
@@ -3075,7 +3212,7 @@
       <c r="F14" s="12">
         <v>0.31214</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="14" t="s">
         <v>70</v>
       </c>
@@ -3090,7 +3227,7 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="17"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="12" t="s">
         <v>71</v>
       </c>
@@ -3103,7 +3240,7 @@
       <c r="F15" s="12">
         <v>2.9</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="14" t="s">
         <v>72</v>
       </c>
@@ -3118,7 +3255,7 @@
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="17"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="12" t="s">
         <v>73</v>
       </c>
@@ -3131,7 +3268,7 @@
       <c r="F16" s="12">
         <v>2.04</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="14" t="s">
         <v>74</v>
       </c>
@@ -3146,7 +3283,7 @@
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="17"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="12" t="s">
         <v>75</v>
       </c>
@@ -3159,7 +3296,7 @@
       <c r="F17" s="12">
         <v>0.045245</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="14" t="s">
         <v>36</v>
       </c>
@@ -3174,7 +3311,7 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="17"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="12" t="s">
         <v>76</v>
       </c>
@@ -3187,7 +3324,7 @@
       <c r="F18" s="12">
         <v>20.77</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="14" t="s">
         <v>4</v>
       </c>
@@ -3202,7 +3339,7 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="17"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="12" t="s">
         <v>77</v>
       </c>
@@ -3215,7 +3352,7 @@
       <c r="F19" s="12">
         <v>0</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="14" t="s">
         <v>78</v>
       </c>
@@ -3230,7 +3367,7 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="43"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="14" t="s">
         <v>79</v>
       </c>
@@ -3243,7 +3380,7 @@
       <c r="F20" s="14">
         <v>1571.64</v>
       </c>
-      <c r="H20" s="43"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="14" t="s">
         <v>80</v>
       </c>
@@ -3258,109 +3395,109 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="53">
         <f>SUM(D4:D10)/D20</f>
         <v>0.653573676742027</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="53">
         <f>SUM(E4:E10)/E20</f>
         <v>0.671346643504747</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="53">
         <f>SUM(F4:F10)/F20</f>
         <v>0.702100990048612</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="55">
         <f>SUM(J4:J11)/J20</f>
         <v>0.537096616148419</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="55">
         <f>SUM(K4:K11)/K20</f>
         <v>0.52580671778704</v>
       </c>
-      <c r="L21" s="47">
+      <c r="L21" s="55">
         <f>SUM(L4:L11)/L20</f>
         <v>0.438261777432191</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="17"/>
-      <c r="C22" s="44" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="53">
         <f>SUM(D11:D19)/D20</f>
         <v>0.121018504273048</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="53">
         <f>SUM(E11:E19)/E20</f>
         <v>0.107723368750446</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="53">
         <f>SUM(F11:F19)/F20</f>
         <v>0.0993511249395536</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="44" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="55">
         <f>SUM(J12:J19)/J20</f>
         <v>0.296967265482101</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="55">
         <f>SUM(K12:K19)/K20</f>
         <v>0.323162694595846</v>
       </c>
-      <c r="L22" s="47">
+      <c r="L22" s="55">
         <f>SUM(L12:L19)/L20</f>
         <v>0.363843247495769</v>
       </c>
     </row>
     <row r="23" spans="8:12">
-      <c r="H23" s="17"/>
-      <c r="I23" s="26" t="s">
+      <c r="H23" s="25"/>
+      <c r="I23" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="56">
         <f>SUM(J4:J11)/D20</f>
         <v>0.350886084052621</v>
       </c>
-      <c r="K23" s="48">
+      <c r="K23" s="56">
         <f>SUM(K4:K11)/E20</f>
         <v>0.351234332984318</v>
       </c>
-      <c r="L23" s="48">
+      <c r="L23" s="56">
         <f>SUM(L4:L11)/F20</f>
         <v>0.304831807538622</v>
       </c>
     </row>
     <row r="24" spans="8:12">
-      <c r="H24" s="17"/>
-      <c r="I24" s="26" t="s">
+      <c r="H24" s="25"/>
+      <c r="I24" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="56">
         <f>SUM(J14:J19)/D20</f>
         <v>0.194009192655265</v>
       </c>
-      <c r="K24" s="48">
+      <c r="K24" s="56">
         <f>SUM(K14:K19)/E20</f>
         <v>0.214245770173476</v>
       </c>
-      <c r="L24" s="48">
+      <c r="L24" s="56">
         <f>SUM(L14:L19)/F20</f>
         <v>0.250588713700339</v>
       </c>
@@ -3399,7 +3536,7 @@
     <col min="9" max="9" width="9.16393442622951" customWidth="1"/>
     <col min="10" max="10" width="9.45081967213115" customWidth="1"/>
     <col min="11" max="11" width="12.4344262295082" customWidth="1"/>
-    <col min="12" max="12" width="8.72131147540984" style="16"/>
+    <col min="12" max="12" width="8.72131147540984" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
@@ -3413,8 +3550,8 @@
       <c r="E2" s="15">
         <v>2017</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="15">
         <v>2019</v>
       </c>
@@ -3429,16 +3566,16 @@
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="15" t="s">
@@ -3453,22 +3590,22 @@
       <c r="E4" s="15">
         <v>1634.29</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="26">
         <v>150.83</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="26">
         <v>191.43</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="26">
         <v>167.04</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="15" t="s">
@@ -3483,7 +3620,7 @@
       <c r="E5" s="15">
         <v>1126.07</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="25" t="s">
         <v>93</v>
       </c>
       <c r="H5" s="15" t="s">
@@ -3512,7 +3649,7 @@
       <c r="E6" s="15">
         <v>8.22</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="15" t="s">
         <v>96</v>
       </c>
@@ -3539,17 +3676,17 @@
       <c r="E7" s="15">
         <v>289.96</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="26">
         <v>-109.62</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="26">
         <v>-76.5</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="26">
         <v>-57.42</v>
       </c>
     </row>
@@ -3566,7 +3703,7 @@
       <c r="E8" s="15">
         <v>71.65</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="25" t="s">
         <v>100</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -3592,10 +3729,10 @@
       <c r="D9" s="15">
         <v>51.05</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="27">
         <v>45.1</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="15" t="s">
         <v>103</v>
       </c>
@@ -3622,7 +3759,7 @@
       <c r="E10" s="15">
         <v>16.04</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="15" t="s">
         <v>105</v>
       </c>
@@ -3632,7 +3769,7 @@
       <c r="J10" s="15">
         <v>224.18</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="27">
         <v>232.47</v>
       </c>
     </row>
@@ -3646,10 +3783,10 @@
       <c r="D11" s="15">
         <v>7.63</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="27">
         <v>6.71</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="15" t="s">
         <v>107</v>
       </c>
@@ -3676,7 +3813,7 @@
       <c r="E12" s="15">
         <v>0</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="15" t="s">
         <v>109</v>
       </c>
@@ -3703,17 +3840,17 @@
       <c r="E13" s="15">
         <v>14.83</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="26">
         <v>-60.13</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="26">
         <v>-105.02</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="26">
         <v>5.1</v>
       </c>
     </row>
@@ -3730,21 +3867,21 @@
       <c r="E14" s="15">
         <v>0.135124</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="29">
         <f>I4-I5-I6</f>
         <v>49.98</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="29">
         <f>J4-J5-J6</f>
         <v>93.6</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="29">
         <f>K4-K5-K6</f>
         <v>97.15</v>
       </c>
@@ -3762,11 +3899,11 @@
       <c r="E15" s="15">
         <v>9.12</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="15" t="s">
@@ -3781,18 +3918,18 @@
       <c r="E16" s="15">
         <v>6.9</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="32">
         <f>SUM(I14:K14)/3</f>
         <v>80.2433333333334</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="15" t="s">
@@ -3807,15 +3944,15 @@
       <c r="E17" s="15">
         <v>2.62</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="47">
         <v>0.08</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="15" t="s">
@@ -3830,263 +3967,263 @@
       <c r="E18" s="15">
         <v>90.28</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="47">
         <v>0.03</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="34">
         <f>C4-C5</f>
         <v>598.94</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="34">
         <f>D4-D5</f>
         <v>536.53</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="34">
         <f>E4-E5</f>
         <v>508.22</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24" t="s">
+      <c r="G19" s="33"/>
+      <c r="H19" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="47">
         <v>0.1</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="35">
         <f>C19/C4</f>
         <v>0.298333349936741</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="35">
         <f>D19/D4</f>
         <v>0.291421339648467</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="35">
         <f>E19/E4</f>
         <v>0.310972960735243</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="24" t="s">
+      <c r="G20" s="33"/>
+      <c r="H20" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="48">
         <v>90.28</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="36">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
         <v>81.3699999999999</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="36">
         <f>D4-D5-D6-D7-D8-D9-D10</f>
         <v>94.2</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="36">
         <f>E4-E5-E6-E7-E8-E9-E10</f>
         <v>77.25</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24" t="s">
+      <c r="G21" s="33"/>
+      <c r="H21" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="32">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
         <v>81.7293209876543</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="37">
         <f>C21/C4</f>
         <v>0.0405305784959304</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="37">
         <f>D21/D4</f>
         <v>0.0511656201794599</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="37">
         <f>E21/E4</f>
         <v>0.047268232688201</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="32">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
         <v>83.2428269318702</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="39">
         <f>C21/I4</f>
         <v>0.539481535503546</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="39">
         <f>D21/J4</f>
         <v>0.49208587995612</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="39">
         <f>E21/K4</f>
         <v>0.46246408045977</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="33"/>
+      <c r="H23" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="32">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
         <v>84.7843607639418</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="40">
         <f>C7/C4</f>
         <v>0.167770793277612</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="40">
         <f>D7/D4</f>
         <v>0.157098007691138</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="40">
         <f>E7/E4</f>
         <v>0.17742261165399</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24" t="s">
+      <c r="G24" s="33"/>
+      <c r="H24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="32">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
         <v>3215.58504929963</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="40">
         <f>C8/C4</f>
         <v>0.0503730785706458</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="40">
         <f>D8/D4</f>
         <v>0.0456525517630956</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="40">
         <f>E8/E4</f>
         <v>0.0438416682473735</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="32">
         <f>SUM(I21:I24)</f>
         <v>3465.3415579831</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="40">
         <f>C16/C4</f>
         <v>0.00194757972126199</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="40">
         <f>D16/D4</f>
         <v>0.00260716535946292</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="40">
         <f>E16/E4</f>
         <v>0.00422201690030533</v>
       </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34" t="s">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="42">
         <f>I25/I20</f>
         <v>38.3843770268398</v>
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="40">
         <f>C18/C4</f>
         <v>0.0449387832358713</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="40">
         <f>D18/D4</f>
         <v>0.0517739587633346</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="40">
         <f>E18/E4</f>
         <v>0.0552411138781979</v>
       </c>
     </row>
     <row r="28" spans="7:10">
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="43" t="s">
         <v>139</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="49">
         <v>0.1</v>
       </c>
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="7:10">
-      <c r="G29" s="36"/>
+      <c r="G29" s="44"/>
       <c r="H29" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="49">
         <v>0.04</v>
       </c>
       <c r="J29" s="14">
@@ -4095,11 +4232,11 @@
       </c>
     </row>
     <row r="30" spans="7:10">
-      <c r="G30" s="36"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30" s="49">
         <v>0.02</v>
       </c>
       <c r="J30" s="14">
@@ -4108,7 +4245,7 @@
       </c>
     </row>
     <row r="31" spans="7:10">
-      <c r="G31" s="36"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="14" t="s">
         <v>143</v>
       </c>
@@ -4122,7 +4259,7 @@
       </c>
     </row>
     <row r="32" spans="7:10">
-      <c r="G32" s="36"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="14" t="s">
         <v>144</v>
       </c>
@@ -4136,7 +4273,7 @@
       </c>
     </row>
     <row r="33" spans="7:10">
-      <c r="G33" s="37"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="14" t="s">
         <v>145</v>
       </c>
@@ -4167,18 +4304,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:J14"/>
+  <dimension ref="A3:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="12.6393442622951" customWidth="1"/>
     <col min="2" max="2" width="18.8770491803279" customWidth="1"/>
     <col min="3" max="3" width="26.9672131147541" customWidth="1"/>
     <col min="4" max="4" width="12.8852459016393" customWidth="1"/>
-    <col min="8" max="8" width="25.8770491803279" customWidth="1"/>
+    <col min="5" max="5" width="12.6393442622951" customWidth="1"/>
+    <col min="6" max="6" width="18.7377049180328" customWidth="1"/>
+    <col min="7" max="7" width="30.9262295081967" customWidth="1"/>
+    <col min="8" max="8" width="26.827868852459" customWidth="1"/>
     <col min="9" max="9" width="16.6147540983607" customWidth="1"/>
     <col min="10" max="10" width="17.6147540983607" customWidth="1"/>
   </cols>
@@ -4359,10 +4500,166 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
+    <row r="16" ht="16.05" spans="2:3">
+      <c r="B16" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" ht="16.05" spans="1:8">
+      <c r="A18" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" ht="16.05" spans="1:8">
+      <c r="A19" s="22"/>
+      <c r="B19" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" ht="16.05" spans="1:8">
+      <c r="A20" s="22"/>
+      <c r="B20" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" ht="16.05" spans="1:8">
+      <c r="A21" s="22"/>
+      <c r="B21" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" ht="16.05" spans="1:8">
+      <c r="A22" s="22"/>
+      <c r="B22" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" ht="16.05" spans="1:8">
+      <c r="A23" s="22"/>
+      <c r="B23" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" ht="16.05" spans="1:8">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" ht="16.05" spans="1:3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" ht="16.05" spans="1:3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" ht="16.05" spans="1:3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A18:A27"/>
     <mergeCell ref="B4:B14"/>
+    <mergeCell ref="E18:E24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4374,8 +4671,8 @@
   <sheetPr/>
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -4389,29 +4686,29 @@
   <sheetData>
     <row r="2" ht="18.25" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" ht="18.25" spans="2:8">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>60</v>
@@ -4419,10 +4716,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" ht="18.25" spans="2:8">
@@ -4434,34 +4731,34 @@
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" ht="18.25" spans="2:8">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" ht="18.25" spans="2:8">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4470,10 +4767,10 @@
     </row>
     <row r="7" ht="18.25" spans="7:8">
       <c r="G7" s="6" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
